--- a/20140604_emd/강원도/03_시도의원-원주시-원주시제1선거구.xlsx
+++ b/20140604_emd/강원도/03_시도의원-원주시-원주시제1선거구.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19440" windowHeight="9855"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="19440" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="도의원선거" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,22 +119,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -137,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -145,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -154,7 +159,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -163,7 +168,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -246,11 +251,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,15 +273,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,8 +324,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,189 +616,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="14" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="5">
+        <v>36937</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20437</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10594</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9367</v>
+      </c>
+      <c r="G5" s="5">
+        <v>19961</v>
+      </c>
+      <c r="H5" s="5">
+        <v>476</v>
+      </c>
+      <c r="I5" s="5">
+        <v>16500</v>
+      </c>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="5">
-        <v>36937</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20437</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10594</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9367</v>
-      </c>
-      <c r="G6" s="5">
-        <v>19961</v>
-      </c>
-      <c r="H6" s="5">
-        <v>476</v>
-      </c>
-      <c r="I6" s="5">
-        <v>16500</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>68</v>
+      </c>
+      <c r="E6" s="7">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>34</v>
+      </c>
+      <c r="G6" s="7">
+        <v>65</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>1691</v>
       </c>
       <c r="D7" s="7">
-        <v>68</v>
+        <v>1690</v>
       </c>
       <c r="E7" s="7">
-        <v>31</v>
+        <v>733</v>
       </c>
       <c r="F7" s="7">
-        <v>34</v>
+        <v>909</v>
       </c>
       <c r="G7" s="7">
-        <v>65</v>
+        <v>1642</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
-        <v>1691</v>
+        <v>14643</v>
       </c>
       <c r="D8" s="7">
-        <v>1690</v>
+        <v>7064</v>
       </c>
       <c r="E8" s="7">
-        <v>733</v>
+        <v>3191</v>
       </c>
       <c r="F8" s="7">
-        <v>909</v>
+        <v>3727</v>
       </c>
       <c r="G8" s="7">
-        <v>1642</v>
+        <v>6918</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -793,28 +824,28 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="7">
-        <v>14643</v>
+        <v>845</v>
       </c>
       <c r="D9" s="7">
-        <v>7064</v>
+        <v>846</v>
       </c>
       <c r="E9" s="7">
-        <v>3191</v>
+        <v>335</v>
       </c>
       <c r="F9" s="7">
-        <v>3727</v>
+        <v>495</v>
       </c>
       <c r="G9" s="7">
-        <v>6918</v>
+        <v>830</v>
       </c>
       <c r="H9" s="7">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>7579</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -822,57 +853,57 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
-        <v>845</v>
+        <v>13798</v>
       </c>
       <c r="D10" s="7">
-        <v>846</v>
+        <v>6218</v>
       </c>
       <c r="E10" s="7">
-        <v>335</v>
+        <v>2856</v>
       </c>
       <c r="F10" s="7">
-        <v>495</v>
+        <v>3232</v>
       </c>
       <c r="G10" s="7">
-        <v>830</v>
+        <v>6088</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I10" s="7">
-        <v>-1</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>13798</v>
+        <v>3540</v>
       </c>
       <c r="D11" s="7">
-        <v>6218</v>
+        <v>2083</v>
       </c>
       <c r="E11" s="7">
-        <v>2856</v>
+        <v>1165</v>
       </c>
       <c r="F11" s="7">
-        <v>3232</v>
+        <v>868</v>
       </c>
       <c r="G11" s="7">
-        <v>6088</v>
+        <v>2033</v>
       </c>
       <c r="H11" s="7">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="I11" s="7">
-        <v>7580</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -880,28 +911,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>179</v>
+      </c>
+      <c r="D12" s="7">
+        <v>179</v>
+      </c>
+      <c r="E12" s="7">
+        <v>91</v>
+      </c>
+      <c r="F12" s="7">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7">
+        <v>174</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
         <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3540</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2083</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1165</v>
-      </c>
-      <c r="F12" s="7">
-        <v>868</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2033</v>
-      </c>
-      <c r="H12" s="7">
-        <v>50</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1457</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -909,57 +940,57 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>179</v>
+        <v>3361</v>
       </c>
       <c r="D13" s="7">
-        <v>179</v>
+        <v>1904</v>
       </c>
       <c r="E13" s="7">
-        <v>91</v>
+        <v>1074</v>
       </c>
       <c r="F13" s="7">
-        <v>83</v>
+        <v>785</v>
       </c>
       <c r="G13" s="7">
-        <v>174</v>
+        <v>1859</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>3361</v>
+        <v>2559</v>
       </c>
       <c r="D14" s="7">
-        <v>1904</v>
+        <v>1610</v>
       </c>
       <c r="E14" s="7">
-        <v>1074</v>
+        <v>913</v>
       </c>
       <c r="F14" s="7">
-        <v>785</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7">
-        <v>1859</v>
+        <v>1530</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I14" s="7">
-        <v>1457</v>
+        <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -967,28 +998,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>130</v>
+      </c>
+      <c r="D15" s="7">
+        <v>130</v>
+      </c>
+      <c r="E15" s="7">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7">
+        <v>63</v>
+      </c>
+      <c r="G15" s="7">
+        <v>123</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
         <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2559</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1610</v>
-      </c>
-      <c r="E15" s="7">
-        <v>913</v>
-      </c>
-      <c r="F15" s="7">
-        <v>617</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1530</v>
-      </c>
-      <c r="H15" s="7">
-        <v>80</v>
-      </c>
-      <c r="I15" s="7">
-        <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -996,57 +1027,57 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7">
-        <v>130</v>
+        <v>2429</v>
       </c>
       <c r="D16" s="7">
-        <v>130</v>
+        <v>1480</v>
       </c>
       <c r="E16" s="7">
-        <v>60</v>
+        <v>853</v>
       </c>
       <c r="F16" s="7">
-        <v>63</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7">
-        <v>123</v>
+        <v>1407</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>2429</v>
+        <v>2178</v>
       </c>
       <c r="D17" s="7">
-        <v>1480</v>
+        <v>1335</v>
       </c>
       <c r="E17" s="7">
-        <v>853</v>
+        <v>751</v>
       </c>
       <c r="F17" s="7">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7">
-        <v>1407</v>
+        <v>1306</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>949</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1054,28 +1085,28 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
+        <v>154</v>
+      </c>
+      <c r="D18" s="7">
+        <v>154</v>
+      </c>
+      <c r="E18" s="7">
+        <v>86</v>
+      </c>
+      <c r="F18" s="7">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7">
+        <v>147</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
         <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2178</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E18" s="7">
-        <v>751</v>
-      </c>
-      <c r="F18" s="7">
-        <v>555</v>
-      </c>
-      <c r="G18" s="7">
-        <v>1306</v>
-      </c>
-      <c r="H18" s="7">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7">
-        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1083,57 +1114,57 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
-        <v>154</v>
+        <v>2024</v>
       </c>
       <c r="D19" s="7">
-        <v>154</v>
+        <v>1181</v>
       </c>
       <c r="E19" s="7">
-        <v>86</v>
+        <v>665</v>
       </c>
       <c r="F19" s="7">
-        <v>61</v>
+        <v>494</v>
       </c>
       <c r="G19" s="7">
-        <v>147</v>
+        <v>1159</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>2024</v>
+        <v>1760</v>
       </c>
       <c r="D20" s="7">
-        <v>1181</v>
+        <v>1057</v>
       </c>
       <c r="E20" s="7">
-        <v>665</v>
+        <v>610</v>
       </c>
       <c r="F20" s="7">
-        <v>494</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7">
-        <v>1159</v>
+        <v>1025</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I20" s="7">
-        <v>843</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1141,28 +1172,28 @@
         <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7">
+        <v>141</v>
+      </c>
+      <c r="E21" s="7">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
+        <v>8</v>
+      </c>
+      <c r="I21" s="7">
         <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1760</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1057</v>
-      </c>
-      <c r="E21" s="7">
-        <v>610</v>
-      </c>
-      <c r="F21" s="7">
-        <v>415</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1025</v>
-      </c>
-      <c r="H21" s="7">
-        <v>32</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1170,57 +1201,57 @@
         <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7">
-        <v>141</v>
+        <v>1619</v>
       </c>
       <c r="D22" s="7">
-        <v>141</v>
+        <v>916</v>
       </c>
       <c r="E22" s="7">
-        <v>72</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7">
-        <v>61</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7">
-        <v>133</v>
+        <v>892</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>1619</v>
+        <v>10491</v>
       </c>
       <c r="D23" s="7">
-        <v>916</v>
+        <v>5524</v>
       </c>
       <c r="E23" s="7">
-        <v>538</v>
+        <v>3197</v>
       </c>
       <c r="F23" s="7">
-        <v>354</v>
+        <v>2239</v>
       </c>
       <c r="G23" s="7">
-        <v>892</v>
+        <v>5436</v>
       </c>
       <c r="H23" s="7">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>703</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1228,28 +1259,28 @@
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C24" s="7">
-        <v>10491</v>
+        <v>726</v>
       </c>
       <c r="D24" s="7">
-        <v>5524</v>
+        <v>725</v>
       </c>
       <c r="E24" s="7">
-        <v>3197</v>
+        <v>373</v>
       </c>
       <c r="F24" s="7">
-        <v>2239</v>
+        <v>342</v>
       </c>
       <c r="G24" s="7">
-        <v>5436</v>
+        <v>715</v>
       </c>
       <c r="H24" s="7">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>4967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1257,106 +1288,79 @@
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="7">
-        <v>726</v>
+        <v>9765</v>
       </c>
       <c r="D25" s="7">
-        <v>725</v>
+        <v>4799</v>
       </c>
       <c r="E25" s="7">
-        <v>373</v>
+        <v>2824</v>
       </c>
       <c r="F25" s="7">
-        <v>342</v>
+        <v>1897</v>
       </c>
       <c r="G25" s="7">
-        <v>715</v>
+        <v>4721</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="I25" s="7">
-        <v>1</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>9765</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>4799</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7">
-        <v>2824</v>
+        <v>3</v>
       </c>
       <c r="F26" s="7">
-        <v>1897</v>
+        <v>3</v>
       </c>
       <c r="G26" s="7">
-        <v>4721</v>
+        <v>6</v>
       </c>
       <c r="H26" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>4966</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>6</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3</v>
-      </c>
-      <c r="G27" s="7">
-        <v>6</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
         <v>-6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="10">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>